--- a/config_3.9/activity_exchange_server.xlsx
+++ b/config_3.9/activity_exchange_server.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
     <sheet name="email|邮件" sheetId="4" r:id="rId2"/>
     <sheet name="award" sheetId="3" r:id="rId3"/>
     <sheet name="all_powerful|万能兑换" sheetId="5" r:id="rId4"/>
+    <sheet name="award_num|兑换次数" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="374">
   <si>
     <t>id|</t>
   </si>
@@ -1595,10 +1596,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_xrxsfl_15box",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1,</t>
   </si>
   <si>
@@ -1630,19 +1627,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"obj_5_coupon",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_xrxsfl_50box",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_3d_fish_lock",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1666,14 +1651,6 @@
     </r>
   </si>
   <si>
-    <t>"prop_xrxsfl_10box",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_xrxsfl_30box",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_hammer_1",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1759,6 +1736,108 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange_V5</t>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_15box",</t>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_50box",</t>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_10box",</t>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_30box",</t>
+  </si>
+  <si>
+    <t>"obj_jbzk",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_5_50box",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_xrxsfl_5_50box",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_id|兑换id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_num|兑换次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|兑换奖励id</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1844,7 +1923,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,6 +1945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2029,6 +2114,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2309,8 +2407,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3744,7 +3842,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C46" s="32">
         <v>1615248000</v>
@@ -3775,7 +3873,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C47" s="32">
         <v>1615248000</v>
@@ -4223,10 +4321,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="32" customFormat="1">
@@ -4234,10 +4332,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4252,11 +4350,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G274" sqref="G274"/>
+      <selection pane="bottomRight" activeCell="C252" sqref="C252:G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10762,280 +10860,280 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="1">
+    <row r="252" spans="1:10" s="42" customFormat="1">
+      <c r="A252" s="42">
         <v>251</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="42">
         <v>43</v>
       </c>
-      <c r="C252" s="1">
-        <v>1</v>
-      </c>
-      <c r="D252" s="3" t="s">
+      <c r="C252" s="42">
+        <v>1</v>
+      </c>
+      <c r="D252" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F252" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G252" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="H252" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="42" customFormat="1">
+      <c r="A253" s="42">
+        <v>252</v>
+      </c>
+      <c r="B253" s="42">
+        <v>43</v>
+      </c>
+      <c r="C253" s="42">
+        <v>2</v>
+      </c>
+      <c r="D253" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F253" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="G253" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H253" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="42" customFormat="1">
+      <c r="A254" s="42">
+        <v>253</v>
+      </c>
+      <c r="B254" s="42">
+        <v>43</v>
+      </c>
+      <c r="C254" s="42">
+        <v>3</v>
+      </c>
+      <c r="D254" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F254" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G254" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H254" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="42" customFormat="1">
+      <c r="A255" s="42">
+        <v>254</v>
+      </c>
+      <c r="B255" s="42">
+        <v>43</v>
+      </c>
+      <c r="C255" s="42">
+        <v>4</v>
+      </c>
+      <c r="D255" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F255" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G255" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H255" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" s="42" customFormat="1">
+      <c r="A256" s="42">
+        <v>255</v>
+      </c>
+      <c r="B256" s="42">
+        <v>43</v>
+      </c>
+      <c r="C256" s="42">
+        <v>5</v>
+      </c>
+      <c r="D256" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F256" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G256" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H256" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="42" customFormat="1">
+      <c r="A257" s="42">
+        <v>256</v>
+      </c>
+      <c r="B257" s="42">
+        <v>43</v>
+      </c>
+      <c r="C257" s="42">
+        <v>6</v>
+      </c>
+      <c r="D257" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F257" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G257" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="H257" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="42" customFormat="1">
+      <c r="A258" s="42">
+        <v>257</v>
+      </c>
+      <c r="B258" s="42">
+        <v>44</v>
+      </c>
+      <c r="C258" s="42">
+        <v>1</v>
+      </c>
+      <c r="D258" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G258" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H258" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="42" customFormat="1">
+      <c r="A259" s="42">
+        <v>258</v>
+      </c>
+      <c r="B259" s="42">
+        <v>44</v>
+      </c>
+      <c r="C259" s="42">
+        <v>2</v>
+      </c>
+      <c r="D259" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F259" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="G259" s="43" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="1">
-        <v>252</v>
-      </c>
-      <c r="B253" s="1">
-        <v>43</v>
-      </c>
-      <c r="C253" s="1">
-        <v>2</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H253" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="1">
-        <v>253</v>
-      </c>
-      <c r="B254" s="1">
-        <v>43</v>
-      </c>
-      <c r="C254" s="1">
+      <c r="H259" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="42" customFormat="1">
+      <c r="A260" s="42">
+        <v>259</v>
+      </c>
+      <c r="B260" s="42">
+        <v>44</v>
+      </c>
+      <c r="C260" s="42">
         <v>3</v>
       </c>
-      <c r="D254" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="1">
-        <v>254</v>
-      </c>
-      <c r="B255" s="1">
-        <v>43</v>
-      </c>
-      <c r="C255" s="1">
+      <c r="D260" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G260" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H260" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="42" customFormat="1">
+      <c r="A261" s="42">
+        <v>260</v>
+      </c>
+      <c r="B261" s="42">
+        <v>44</v>
+      </c>
+      <c r="C261" s="42">
         <v>4</v>
       </c>
-      <c r="D255" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="1">
-        <v>255</v>
-      </c>
-      <c r="B256" s="1">
-        <v>43</v>
-      </c>
-      <c r="C256" s="1">
+      <c r="D261" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G261" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H261" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="42" customFormat="1">
+      <c r="A262" s="42">
+        <v>261</v>
+      </c>
+      <c r="B262" s="42">
+        <v>44</v>
+      </c>
+      <c r="C262" s="42">
         <v>5</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F256" s="3" t="s">
+      <c r="D262" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G262" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H262" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="G256" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257" s="1">
-        <v>256</v>
-      </c>
-      <c r="B257" s="1">
-        <v>43</v>
-      </c>
-      <c r="C257" s="1">
+    </row>
+    <row r="263" spans="1:10" s="42" customFormat="1">
+      <c r="A263" s="42">
+        <v>262</v>
+      </c>
+      <c r="B263" s="42">
+        <v>44</v>
+      </c>
+      <c r="C263" s="42">
         <v>6</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F257" s="3" t="s">
+      <c r="D263" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F263" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="G257" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="A258" s="1">
-        <v>257</v>
-      </c>
-      <c r="B258" s="1">
-        <v>44</v>
-      </c>
-      <c r="C258" s="1">
-        <v>1</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H258" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="1">
-        <v>258</v>
-      </c>
-      <c r="B259" s="1">
-        <v>44</v>
-      </c>
-      <c r="C259" s="1">
-        <v>2</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="1">
-        <v>259</v>
-      </c>
-      <c r="B260" s="1">
-        <v>44</v>
-      </c>
-      <c r="C260" s="1">
-        <v>3</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H260" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
-      <c r="A261" s="1">
-        <v>260</v>
-      </c>
-      <c r="B261" s="1">
-        <v>44</v>
-      </c>
-      <c r="C261" s="1">
-        <v>4</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H261" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="1">
-        <v>261</v>
-      </c>
-      <c r="B262" s="1">
-        <v>44</v>
-      </c>
-      <c r="C262" s="1">
-        <v>5</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="1">
-        <v>262</v>
-      </c>
-      <c r="B263" s="1">
-        <v>44</v>
-      </c>
-      <c r="C263" s="1">
-        <v>6</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>338</v>
+      <c r="G263" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H263" s="43" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="32" customFormat="1">
@@ -11049,15 +11147,15 @@
         <v>1</v>
       </c>
       <c r="D264" s="41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E264" s="38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F264" s="39"/>
       <c r="G264" s="39"/>
       <c r="H264" s="39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J264" s="32">
         <v>1</v>
@@ -11077,12 +11175,12 @@
         <v>130</v>
       </c>
       <c r="E265" s="38" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F265" s="39"/>
       <c r="G265" s="39"/>
       <c r="H265" s="39" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J265" s="32">
         <v>1</v>
@@ -11102,11 +11200,11 @@
         <v>130</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G266" s="39"/>
       <c r="H266" s="39" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J266" s="32">
         <v>1</v>
@@ -11130,10 +11228,10 @@
         <v>181</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H267" s="39" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="32" customFormat="1">
@@ -11154,7 +11252,7 @@
         <v>41</v>
       </c>
       <c r="G268" s="39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H268" s="34" t="s">
         <v>68</v>
@@ -11181,10 +11279,10 @@
         <v>41</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H269" s="34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J269" s="32">
         <v>1</v>
@@ -11204,7 +11302,7 @@
         <v>130</v>
       </c>
       <c r="E270" s="38" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G270" s="39"/>
       <c r="H270" s="34" t="s">
@@ -11235,7 +11333,7 @@
         <v>174</v>
       </c>
       <c r="H271" s="39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J271" s="32">
         <v>1</v>
@@ -11252,15 +11350,15 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E272" s="38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F272" s="39"/>
       <c r="G272" s="39"/>
       <c r="H272" s="39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J272" s="32">
         <v>1</v>
@@ -11280,12 +11378,12 @@
         <v>322</v>
       </c>
       <c r="E273" s="38" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F273" s="39"/>
       <c r="G273" s="39"/>
       <c r="H273" s="39" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J273" s="32">
         <v>1</v>
@@ -11305,11 +11403,11 @@
         <v>131</v>
       </c>
       <c r="E274" s="38" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G274" s="39"/>
       <c r="H274" s="39" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J274" s="32">
         <v>1</v>
@@ -11336,7 +11434,7 @@
         <v>213</v>
       </c>
       <c r="H275" s="39" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="32" customFormat="1">
@@ -11357,7 +11455,7 @@
         <v>41</v>
       </c>
       <c r="G276" s="39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H276" s="34" t="s">
         <v>68</v>
@@ -11384,10 +11482,10 @@
         <v>41</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H277" s="34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J277" s="32">
         <v>1</v>
@@ -11407,7 +11505,7 @@
         <v>131</v>
       </c>
       <c r="E278" s="38" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G278" s="39"/>
       <c r="H278" s="34" t="s">
@@ -11438,7 +11536,7 @@
         <v>213</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J279" s="32">
         <v>1</v>
@@ -11495,7 +11593,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11644,4 +11742,208 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_3.9/activity_exchange_server.xlsx
+++ b/config_3.9/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="374">
   <si>
     <t>id|</t>
   </si>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD45"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11593,7 +11593,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A4" sqref="A4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11627,116 +11627,60 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7">
-        <v>36</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7">
-        <v>37</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7">
-        <v>38</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7">
-        <v>39</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7">
-        <v>40</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7">
-        <v>41</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7">
-        <v>42</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7">
-        <v>43</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7">
-        <v>44</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7">
-        <v>45</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7">
-        <v>46</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7">
-        <v>47</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7">
-        <v>48</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7">
-        <v>49</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>278</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -11749,7 +11693,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_3.9/activity_exchange_server.xlsx
+++ b/config_3.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="373">
   <si>
     <t>id|</t>
   </si>
@@ -1362,10 +1362,6 @@
   </si>
   <si>
     <t>1250,1250,1250,1250,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,6000,6000,6000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3516,7 +3512,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="23">
         <v>1</v>
@@ -3536,7 +3532,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="7">
         <v>1612828800</v>
@@ -3567,7 +3563,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="7">
         <v>1613433600</v>
@@ -3598,7 +3594,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="7">
         <v>1613433600</v>
@@ -3629,7 +3625,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="7">
         <v>1613433600</v>
@@ -3660,7 +3656,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="7">
         <v>1614038400</v>
@@ -3671,7 +3667,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
@@ -3691,7 +3687,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="7">
         <v>1614038400</v>
@@ -3702,7 +3698,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="23">
         <v>1</v>
@@ -3722,7 +3718,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="7">
         <v>1614643200</v>
@@ -3733,7 +3729,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
@@ -3753,7 +3749,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C43" s="7">
         <v>1614643200</v>
@@ -3764,7 +3760,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
@@ -3784,7 +3780,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44" s="7">
         <v>1615248000</v>
@@ -3795,7 +3791,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H44" s="23">
         <v>1</v>
@@ -3813,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45" s="7">
         <v>1615248000</v>
@@ -3824,7 +3820,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
@@ -3842,7 +3838,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="32">
         <v>1615248000</v>
@@ -3873,7 +3869,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="32">
         <v>1615248000</v>
@@ -4277,10 +4273,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
@@ -4288,10 +4284,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
@@ -4299,10 +4295,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
@@ -4310,10 +4306,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="32" customFormat="1">
@@ -4321,10 +4317,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="32" customFormat="1">
@@ -4332,10 +4328,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4350,11 +4346,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B239" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C252" sqref="C252:G257"/>
+      <selection pane="bottomRight" activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4380,7 +4376,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9441,7 +9437,7 @@
         <v>51</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H197" s="20" t="s">
         <v>270</v>
@@ -9471,7 +9467,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="20" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -9495,7 +9491,7 @@
         <v>174</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J199" s="7">
         <v>3</v>
@@ -9522,7 +9518,7 @@
         <v>174</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J200" s="7">
         <v>2</v>
@@ -9549,7 +9545,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J201" s="7">
         <v>1</v>
@@ -9576,7 +9572,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J202" s="7">
         <v>1</v>
@@ -9647,10 +9643,10 @@
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H205" s="20" t="s">
         <v>270</v>
@@ -9680,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
@@ -9704,7 +9700,7 @@
         <v>61</v>
       </c>
       <c r="H207" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J207" s="7">
         <v>3</v>
@@ -9731,7 +9727,7 @@
         <v>177</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J208" s="7">
         <v>2</v>
@@ -9758,7 +9754,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J209" s="7">
         <v>1</v>
@@ -9785,7 +9781,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J210" s="7">
         <v>1</v>
@@ -9802,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20" t="s">
@@ -9812,7 +9808,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J211" s="7">
         <v>9999</v>
@@ -9829,7 +9825,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20" t="s">
@@ -9839,7 +9835,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J212" s="7">
         <v>9999</v>
@@ -9856,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20" t="s">
@@ -9866,7 +9862,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J213" s="7">
         <v>9999</v>
@@ -9883,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20" t="s">
@@ -9893,7 +9889,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J214" s="7">
         <v>9999</v>
@@ -9910,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20" t="s">
@@ -9920,7 +9916,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J215" s="7">
         <v>9999</v>
@@ -9937,7 +9933,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20" t="s">
@@ -9947,7 +9943,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J216" s="7">
         <v>9999</v>
@@ -9964,14 +9960,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>229</v>
@@ -9991,14 +9987,14 @@
         <v>2</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H218" s="19" t="s">
         <v>229</v>
@@ -10018,7 +10014,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20" t="s">
@@ -10048,7 +10044,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
@@ -10073,7 +10069,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
@@ -10098,7 +10094,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20" t="s">
@@ -10254,7 +10250,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
@@ -10279,7 +10275,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
@@ -10304,7 +10300,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
@@ -10461,7 +10457,7 @@
         <v>130</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
@@ -10486,7 +10482,7 @@
         <v>130</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
@@ -10511,7 +10507,7 @@
         <v>130</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20" t="s">
@@ -10637,7 +10633,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="22" t="s">
@@ -10664,10 +10660,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10689,10 +10685,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -10717,7 +10713,7 @@
         <v>131</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -10871,16 +10867,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F252" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G252" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H252" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:10" s="42" customFormat="1">
@@ -10894,16 +10890,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F253" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G253" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="H253" s="43" t="s">
         <v>329</v>
-      </c>
-      <c r="G253" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="H253" s="43" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="254" spans="1:10" s="42" customFormat="1">
@@ -10917,16 +10913,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F254" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G254" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H254" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="42" customFormat="1">
@@ -10940,16 +10936,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F255" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G255" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H255" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="256" spans="1:10" s="42" customFormat="1">
@@ -10963,16 +10959,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F256" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H256" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="42" customFormat="1">
@@ -10986,16 +10982,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F257" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G257" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="G257" s="43" t="s">
+      <c r="H257" s="43" t="s">
         <v>333</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="42" customFormat="1">
@@ -11009,16 +11005,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G258" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G258" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="H258" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="42" customFormat="1">
@@ -11032,16 +11028,16 @@
         <v>2</v>
       </c>
       <c r="D259" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F259" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G259" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H259" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="42" customFormat="1">
@@ -11055,16 +11051,16 @@
         <v>3</v>
       </c>
       <c r="D260" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G260" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F260" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="H260" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="42" customFormat="1">
@@ -11078,16 +11074,16 @@
         <v>4</v>
       </c>
       <c r="D261" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G261" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F261" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="H261" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="42" customFormat="1">
@@ -11101,16 +11097,16 @@
         <v>5</v>
       </c>
       <c r="D262" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G262" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="H262" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="42" customFormat="1">
@@ -11124,16 +11120,16 @@
         <v>6</v>
       </c>
       <c r="D263" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G263" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="F263" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="H263" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="264" spans="1:10" s="32" customFormat="1">
@@ -11147,15 +11143,15 @@
         <v>1</v>
       </c>
       <c r="D264" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E264" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F264" s="39"/>
       <c r="G264" s="39"/>
       <c r="H264" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J264" s="32">
         <v>1</v>
@@ -11175,12 +11171,12 @@
         <v>130</v>
       </c>
       <c r="E265" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F265" s="39"/>
       <c r="G265" s="39"/>
       <c r="H265" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J265" s="32">
         <v>1</v>
@@ -11200,11 +11196,11 @@
         <v>130</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G266" s="39"/>
       <c r="H266" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J266" s="32">
         <v>1</v>
@@ -11228,10 +11224,10 @@
         <v>181</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H267" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="32" customFormat="1">
@@ -11252,7 +11248,7 @@
         <v>41</v>
       </c>
       <c r="G268" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H268" s="34" t="s">
         <v>68</v>
@@ -11279,10 +11275,10 @@
         <v>41</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H269" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J269" s="32">
         <v>1</v>
@@ -11302,7 +11298,7 @@
         <v>130</v>
       </c>
       <c r="E270" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G270" s="39"/>
       <c r="H270" s="34" t="s">
@@ -11323,7 +11319,7 @@
         <v>8</v>
       </c>
       <c r="D271" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E271" s="38"/>
       <c r="F271" s="40" t="s">
@@ -11333,7 +11329,7 @@
         <v>174</v>
       </c>
       <c r="H271" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J271" s="32">
         <v>1</v>
@@ -11350,15 +11346,15 @@
         <v>1</v>
       </c>
       <c r="D272" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E272" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F272" s="39"/>
       <c r="G272" s="39"/>
       <c r="H272" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J272" s="32">
         <v>1</v>
@@ -11375,15 +11371,15 @@
         <v>2</v>
       </c>
       <c r="D273" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E273" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F273" s="39"/>
       <c r="G273" s="39"/>
       <c r="H273" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J273" s="32">
         <v>1</v>
@@ -11403,11 +11399,11 @@
         <v>131</v>
       </c>
       <c r="E274" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G274" s="39"/>
       <c r="H274" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J274" s="32">
         <v>1</v>
@@ -11434,7 +11430,7 @@
         <v>213</v>
       </c>
       <c r="H275" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="276" spans="1:10" s="32" customFormat="1">
@@ -11455,7 +11451,7 @@
         <v>41</v>
       </c>
       <c r="G276" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H276" s="34" t="s">
         <v>68</v>
@@ -11482,10 +11478,10 @@
         <v>41</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H277" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J277" s="32">
         <v>1</v>
@@ -11505,7 +11501,7 @@
         <v>131</v>
       </c>
       <c r="E278" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G278" s="39"/>
       <c r="H278" s="34" t="s">
@@ -11536,7 +11532,7 @@
         <v>213</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J279" s="32">
         <v>1</v>
@@ -11604,10 +11600,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11615,7 +11611,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11623,7 +11619,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11692,7 +11688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -11706,16 +11702,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>365</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11726,7 +11722,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -11740,7 +11736,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -11754,7 +11750,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -11768,7 +11764,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -11782,7 +11778,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -11796,7 +11792,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -11810,7 +11806,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -11824,7 +11820,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -11838,7 +11834,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -11852,7 +11848,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -11866,7 +11862,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -11880,7 +11876,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_3.9/activity_exchange_server.xlsx
+++ b/config_3.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="369">
   <si>
     <t>id|</t>
   </si>
@@ -1774,48 +1774,6 @@
   </si>
   <si>
     <t>2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4346,7 +4304,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11688,8 +11646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11702,7 +11660,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>363</v>
@@ -11743,144 +11701,42 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
